--- a/MonsterProm/local.xlsx
+++ b/MonsterProm/local.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>N</t>
@@ -541,7 +546,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -621,7 +626,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -689,7 +694,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -757,7 +762,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -833,7 +838,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -897,7 +902,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -961,7 +966,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1025,7 +1030,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1089,7 +1094,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1169,7 +1174,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1249,7 +1254,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1321,7 +1326,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1401,7 +1406,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1481,7 +1486,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1553,7 +1558,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1625,7 +1630,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1689,7 +1694,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1761,7 +1766,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1833,7 +1838,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1905,7 +1910,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1977,7 +1982,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -2049,7 +2054,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2121,7 +2126,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2193,7 +2198,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2265,7 +2270,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2329,7 +2334,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2393,7 +2398,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2457,7 +2462,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2521,7 +2526,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2585,7 +2590,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2649,7 +2654,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2713,7 +2718,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2777,7 +2782,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2841,7 +2846,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2905,7 +2910,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -2959,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="b">
         <v>0</v>
@@ -2969,7 +2974,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3033,7 +3038,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3097,7 +3102,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3161,7 +3166,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3225,7 +3230,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3289,7 +3294,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
@@ -3353,7 +3358,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
@@ -3417,7 +3422,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
@@ -3481,7 +3486,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
@@ -3532,7 +3537,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="b">
         <v>0</v>
@@ -3545,7 +3550,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
@@ -3609,7 +3614,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
@@ -3673,7 +3678,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
@@ -3737,7 +3742,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
@@ -3801,7 +3806,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
@@ -3865,7 +3870,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
@@ -3929,7 +3934,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
@@ -3993,7 +3998,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
@@ -4057,7 +4062,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
@@ -4121,7 +4126,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
@@ -4185,7 +4190,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
@@ -4249,7 +4254,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
@@ -4313,7 +4318,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
@@ -4377,7 +4382,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
@@ -4441,7 +4446,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
@@ -4495,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="T60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" t="b">
         <v>0</v>
@@ -4505,7 +4510,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
@@ -4569,7 +4574,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
@@ -4633,7 +4638,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
@@ -4697,7 +4702,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
@@ -4761,7 +4766,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
@@ -4825,7 +4830,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
@@ -4889,7 +4894,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
@@ -4953,7 +4958,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
@@ -5017,7 +5022,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
@@ -5081,7 +5086,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
@@ -5145,7 +5150,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
@@ -5209,7 +5214,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
@@ -5273,7 +5278,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
@@ -5337,7 +5342,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
@@ -5401,7 +5406,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
@@ -5465,7 +5470,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
@@ -5529,7 +5534,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
@@ -5593,7 +5598,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
@@ -5657,7 +5662,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
@@ -5721,7 +5726,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
@@ -5785,7 +5790,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
@@ -5849,7 +5854,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
@@ -5903,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="T82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" t="b">
         <v>0</v>
@@ -5913,7 +5918,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
@@ -5977,7 +5982,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
@@ -6041,7 +6046,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
@@ -6105,7 +6110,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
@@ -6169,7 +6174,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
@@ -6233,7 +6238,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
@@ -6297,7 +6302,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
@@ -6361,7 +6366,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
@@ -6425,7 +6430,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
@@ -6489,7 +6494,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
@@ -6553,7 +6558,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
@@ -6617,7 +6622,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
@@ -6681,7 +6686,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
@@ -6745,7 +6750,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
@@ -6809,7 +6814,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
@@ -6873,7 +6878,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
@@ -6937,7 +6942,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
@@ -7001,7 +7006,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
@@ -7065,7 +7070,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
@@ -7129,7 +7134,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
@@ -7193,7 +7198,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
@@ -7257,7 +7262,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
@@ -7321,7 +7326,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
@@ -7385,7 +7390,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
@@ -7449,7 +7454,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
@@ -7500,7 +7505,7 @@
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T107" t="b">
         <v>0</v>
@@ -7513,7 +7518,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
@@ -7577,7 +7582,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
@@ -7641,7 +7646,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
@@ -7705,7 +7710,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
@@ -7769,7 +7774,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
@@ -7833,7 +7838,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
@@ -7897,7 +7902,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
@@ -7961,7 +7966,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
@@ -8025,7 +8030,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
@@ -8089,7 +8094,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
@@ -8153,7 +8158,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
@@ -8217,7 +8222,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
@@ -8281,7 +8286,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
@@ -8345,7 +8350,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
@@ -8409,7 +8414,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
@@ -8473,7 +8478,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
@@ -8537,7 +8542,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
@@ -8601,7 +8606,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
@@ -8665,7 +8670,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
@@ -8729,7 +8734,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
@@ -8793,7 +8798,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
@@ -8857,7 +8862,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
@@ -8921,7 +8926,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
@@ -8985,7 +8990,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
@@ -9049,7 +9054,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
@@ -9113,7 +9118,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
@@ -9177,7 +9182,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
@@ -9241,7 +9246,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
@@ -9305,7 +9310,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
@@ -9369,7 +9374,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
@@ -9433,7 +9438,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
@@ -9497,7 +9502,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
@@ -9561,7 +9566,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
@@ -9625,7 +9630,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
@@ -9689,7 +9694,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
@@ -9753,7 +9758,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
@@ -9817,7 +9822,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
@@ -9881,7 +9886,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
@@ -9945,7 +9950,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
@@ -10009,7 +10014,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
@@ -10073,7 +10078,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
@@ -10137,7 +10142,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
@@ -10201,7 +10206,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
@@ -10265,7 +10270,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
@@ -10329,7 +10334,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
@@ -10393,7 +10398,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
@@ -10457,7 +10462,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
@@ -10521,7 +10526,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
@@ -10585,7 +10590,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
@@ -10649,7 +10654,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
@@ -10713,7 +10718,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
@@ -10777,7 +10782,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
@@ -10841,7 +10846,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
@@ -10905,7 +10910,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
@@ -10969,7 +10974,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
@@ -11033,7 +11038,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
@@ -11097,7 +11102,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
@@ -11161,7 +11166,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
@@ -11225,7 +11230,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
@@ -11289,7 +11294,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
@@ -11353,7 +11358,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
@@ -11417,7 +11422,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
@@ -11481,7 +11486,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
@@ -11545,7 +11550,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
@@ -11609,7 +11614,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
@@ -11673,7 +11678,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
@@ -11737,7 +11742,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
@@ -11801,7 +11806,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
@@ -11865,7 +11870,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
@@ -11929,7 +11934,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
@@ -11993,7 +11998,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
@@ -12057,7 +12062,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
@@ -12121,7 +12126,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
@@ -12185,7 +12190,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
@@ -12249,7 +12254,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
@@ -12313,7 +12318,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
@@ -12377,7 +12382,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
@@ -12441,7 +12446,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
@@ -12505,7 +12510,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
@@ -12569,7 +12574,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
@@ -12633,7 +12638,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
@@ -12697,7 +12702,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
@@ -12761,7 +12766,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
@@ -12825,7 +12830,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
@@ -12889,7 +12894,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
@@ -12953,7 +12958,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
@@ -13017,7 +13022,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
@@ -13081,7 +13086,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
@@ -13145,7 +13150,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
@@ -13209,7 +13214,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
@@ -13273,7 +13278,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
@@ -13337,7 +13342,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
@@ -13401,7 +13406,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
@@ -13465,7 +13470,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
@@ -13529,7 +13534,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
@@ -13593,7 +13598,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
@@ -13657,7 +13662,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
@@ -13721,7 +13726,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
@@ -13785,7 +13790,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
@@ -13849,7 +13854,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
@@ -13913,7 +13918,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
@@ -13977,7 +13982,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
@@ -14041,7 +14046,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
@@ -14105,7 +14110,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
@@ -14169,7 +14174,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
@@ -14233,7 +14238,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="n">
@@ -14297,7 +14302,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="n">
@@ -14361,7 +14366,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="n">
@@ -14425,7 +14430,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="n">
@@ -14489,7 +14494,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="n">
@@ -14553,7 +14558,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="n">
@@ -14607,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U218" t="b">
         <v>0</v>
@@ -14617,7 +14622,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="n">
@@ -14681,7 +14686,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="n">
@@ -14745,7 +14750,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="n">
@@ -14809,7 +14814,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="n">
@@ -14873,7 +14878,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="n">
@@ -14937,7 +14942,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="n">
@@ -15001,7 +15006,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="n">
@@ -15065,7 +15070,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="n">
@@ -15129,7 +15134,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="n">
@@ -15193,7 +15198,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="n">
@@ -15257,7 +15262,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="n">
@@ -15321,7 +15326,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="n">
@@ -15385,7 +15390,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="n">
@@ -15449,7 +15454,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="n">
@@ -15513,7 +15518,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="n">
@@ -15577,7 +15582,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="n">
@@ -15641,7 +15646,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="n">
@@ -15705,7 +15710,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="n">
@@ -15769,7 +15774,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" t="n">
@@ -15833,7 +15838,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" t="n">
@@ -15897,7 +15902,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" t="n">
@@ -15961,7 +15966,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" t="n">
@@ -16025,7 +16030,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" t="n">
@@ -16089,7 +16094,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" t="n">
@@ -16153,7 +16158,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" t="n">
@@ -16217,7 +16222,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" t="n">
@@ -16281,7 +16286,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" t="n">
@@ -16345,7 +16350,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" t="n">
@@ -16409,7 +16414,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" t="n">
@@ -16473,7 +16478,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" t="n">
@@ -16537,7 +16542,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" t="n">
@@ -16601,7 +16606,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" t="n">
@@ -16665,7 +16670,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" t="n">
@@ -16729,7 +16734,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" t="n">
@@ -16793,7 +16798,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" t="n">
@@ -16857,7 +16862,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" t="n">
@@ -16921,7 +16926,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" t="n">
@@ -16985,7 +16990,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" t="n">
@@ -17049,7 +17054,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" t="n">
@@ -17113,7 +17118,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" t="n">
@@ -17177,7 +17182,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" t="n">
@@ -17241,7 +17246,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" t="n">
@@ -17305,7 +17310,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" t="n">
@@ -17369,7 +17374,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" t="n">
@@ -17433,7 +17438,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" t="n">
@@ -17497,7 +17502,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" t="n">
@@ -17561,7 +17566,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" t="n">
@@ -17625,7 +17630,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" t="n">
@@ -17689,7 +17694,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" t="n">
@@ -17753,7 +17758,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" t="n">
@@ -17817,7 +17822,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" t="n">
@@ -17881,7 +17886,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" t="n">
@@ -17945,7 +17950,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>269</v>
       </c>
       <c r="B271" t="n">
@@ -18009,7 +18014,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>270</v>
       </c>
       <c r="B272" t="n">
@@ -18073,7 +18078,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>271</v>
       </c>
       <c r="B273" t="n">
@@ -18137,7 +18142,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>272</v>
       </c>
       <c r="B274" t="n">
@@ -18201,7 +18206,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>273</v>
       </c>
       <c r="B275" t="n">
@@ -18265,7 +18270,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>274</v>
       </c>
       <c r="B276" t="n">
@@ -18329,7 +18334,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>275</v>
       </c>
       <c r="B277" t="n">
@@ -18393,7 +18398,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>276</v>
       </c>
       <c r="B278" t="n">
@@ -18457,7 +18462,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>277</v>
       </c>
       <c r="B279" t="n">
@@ -18521,7 +18526,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>278</v>
       </c>
       <c r="B280" t="n">
@@ -18585,7 +18590,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>279</v>
       </c>
       <c r="B281" t="n">
@@ -18649,7 +18654,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>280</v>
       </c>
       <c r="B282" t="n">
@@ -18713,7 +18718,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>281</v>
       </c>
       <c r="B283" t="n">
@@ -18777,7 +18782,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>282</v>
       </c>
       <c r="B284" t="n">
@@ -18841,7 +18846,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>283</v>
       </c>
       <c r="B285" t="n">
@@ -18905,7 +18910,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>284</v>
       </c>
       <c r="B286" t="n">
@@ -18969,7 +18974,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>285</v>
       </c>
       <c r="B287" t="n">
@@ -19033,7 +19038,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>286</v>
       </c>
       <c r="B288" t="n">
@@ -19097,7 +19102,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>287</v>
       </c>
       <c r="B289" t="n">
@@ -19161,7 +19166,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>288</v>
       </c>
       <c r="B290" t="n">
@@ -19225,7 +19230,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="n">
@@ -19289,7 +19294,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="n">
@@ -19353,7 +19358,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>291</v>
       </c>
       <c r="B293" t="n">
@@ -19417,7 +19422,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="n">
@@ -19481,7 +19486,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="n">
@@ -19545,7 +19550,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="n">
@@ -19609,7 +19614,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="n">
@@ -19673,7 +19678,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="n">
@@ -19737,7 +19742,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="n">
@@ -19801,7 +19806,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="n">
@@ -19865,7 +19870,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="n">
@@ -19929,7 +19934,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="n">
@@ -19993,7 +19998,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="n">
@@ -20057,7 +20062,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="n">
@@ -20121,7 +20126,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="n">
@@ -20185,7 +20190,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="n">
@@ -20249,7 +20254,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="n">
@@ -20313,7 +20318,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="n">
@@ -20377,7 +20382,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
@@ -20441,7 +20446,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="n">
@@ -20505,7 +20510,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="n">
@@ -20569,7 +20574,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="n">
@@ -20633,7 +20638,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="n">
@@ -20697,7 +20702,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="n">
@@ -20761,7 +20766,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="n">
@@ -20825,7 +20830,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="n">
@@ -20889,7 +20894,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="n">
@@ -20953,7 +20958,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="n">
@@ -21017,7 +21022,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="n">
@@ -21081,7 +21086,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="n">
@@ -21145,7 +21150,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="n">
@@ -21209,7 +21214,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="n">
@@ -21273,7 +21278,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="n">
@@ -21337,7 +21342,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="n">
@@ -21401,7 +21406,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="n">
@@ -21465,7 +21470,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="n">
@@ -21529,7 +21534,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="n">
@@ -21593,7 +21598,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="n">
@@ -21657,7 +21662,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>327</v>
       </c>
       <c r="B329" t="n">
@@ -21721,7 +21726,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>328</v>
       </c>
       <c r="B330" t="n">
@@ -21785,7 +21790,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>329</v>
       </c>
       <c r="B331" t="n">
@@ -21849,7 +21854,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>330</v>
       </c>
       <c r="B332" t="n">
@@ -21913,7 +21918,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>331</v>
       </c>
       <c r="B333" t="n">
@@ -21977,7 +21982,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>332</v>
       </c>
       <c r="B334" t="n">
@@ -22041,7 +22046,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>333</v>
       </c>
       <c r="B335" t="n">
@@ -22105,7 +22110,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>334</v>
       </c>
       <c r="B336" t="n">
@@ -22169,7 +22174,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>335</v>
       </c>
       <c r="B337" t="n">
@@ -22233,7 +22238,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>336</v>
       </c>
       <c r="B338" t="n">
@@ -22297,7 +22302,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>337</v>
       </c>
       <c r="B339" t="n">
@@ -22361,7 +22366,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>338</v>
       </c>
       <c r="B340" t="n">
@@ -22425,7 +22430,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>339</v>
       </c>
       <c r="B341" t="n">
@@ -22489,7 +22494,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>340</v>
       </c>
       <c r="B342" t="n">
@@ -22553,7 +22558,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="n">
@@ -22617,7 +22622,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>342</v>
       </c>
       <c r="B344" t="n">
@@ -22681,7 +22686,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="n">
@@ -22745,7 +22750,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>344</v>
       </c>
       <c r="B346" t="n">
@@ -22809,7 +22814,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="n">
@@ -22873,7 +22878,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>346</v>
       </c>
       <c r="B348" t="n">
@@ -22937,7 +22942,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>347</v>
       </c>
       <c r="B349" t="n">
@@ -23001,7 +23006,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>348</v>
       </c>
       <c r="B350" t="n">
@@ -23065,7 +23070,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>349</v>
       </c>
       <c r="B351" t="n">
@@ -23129,7 +23134,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>350</v>
       </c>
       <c r="B352" t="n">
@@ -23193,7 +23198,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>351</v>
       </c>
       <c r="B353" t="n">
@@ -23257,7 +23262,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>352</v>
       </c>
       <c r="B354" t="n">
@@ -23321,7 +23326,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>353</v>
       </c>
       <c r="B355" t="n">
@@ -23385,7 +23390,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>354</v>
       </c>
       <c r="B356" t="n">
@@ -23449,7 +23454,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>355</v>
       </c>
       <c r="B357" t="n">
@@ -23513,7 +23518,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>356</v>
       </c>
       <c r="B358" t="n">
@@ -23577,7 +23582,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>357</v>
       </c>
       <c r="B359" t="n">
@@ -23641,7 +23646,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>358</v>
       </c>
       <c r="B360" t="n">
@@ -23705,7 +23710,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="A361" t="n">
         <v>359</v>
       </c>
       <c r="B361" t="n">
@@ -23769,7 +23774,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="A362" t="n">
         <v>360</v>
       </c>
       <c r="B362" t="n">
@@ -23833,7 +23838,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="A363" t="n">
         <v>361</v>
       </c>
       <c r="B363" t="n">
@@ -23897,7 +23902,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="n">
+      <c r="A364" t="n">
         <v>362</v>
       </c>
       <c r="B364" t="n">
@@ -23961,7 +23966,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="n">
+      <c r="A365" t="n">
         <v>363</v>
       </c>
       <c r="B365" t="n">
@@ -24025,7 +24030,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="n">
+      <c r="A366" t="n">
         <v>364</v>
       </c>
       <c r="B366" t="n">
@@ -24089,7 +24094,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="n">
+      <c r="A367" t="n">
         <v>365</v>
       </c>
       <c r="B367" t="n">
@@ -24153,7 +24158,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="n">
+      <c r="A368" t="n">
         <v>366</v>
       </c>
       <c r="B368" t="n">
@@ -24217,7 +24222,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="n">
+      <c r="A369" t="n">
         <v>367</v>
       </c>
       <c r="B369" t="n">
@@ -24281,7 +24286,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="n">
+      <c r="A370" t="n">
         <v>368</v>
       </c>
       <c r="B370" t="n">
@@ -24345,7 +24350,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="n">
+      <c r="A371" t="n">
         <v>369</v>
       </c>
       <c r="B371" t="n">
@@ -24409,7 +24414,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="n">
+      <c r="A372" t="n">
         <v>370</v>
       </c>
       <c r="B372" t="n">
@@ -24473,7 +24478,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="A373" t="n">
         <v>371</v>
       </c>
       <c r="B373" t="n">
@@ -24537,7 +24542,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="n">
+      <c r="A374" t="n">
         <v>372</v>
       </c>
       <c r="B374" t="n">
@@ -24601,7 +24606,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="n">
+      <c r="A375" t="n">
         <v>373</v>
       </c>
       <c r="B375" t="n">
@@ -24665,7 +24670,7 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="1" t="n">
+      <c r="A376" t="n">
         <v>374</v>
       </c>
       <c r="B376" t="n">
@@ -24729,7 +24734,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="1" t="n">
+      <c r="A377" t="n">
         <v>375</v>
       </c>
       <c r="B377" t="n">
@@ -24793,7 +24798,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="1" t="n">
+      <c r="A378" t="n">
         <v>376</v>
       </c>
       <c r="B378" t="n">
@@ -24857,7 +24862,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="1" t="n">
+      <c r="A379" t="n">
         <v>377</v>
       </c>
       <c r="B379" t="n">
@@ -24921,7 +24926,7 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="1" t="n">
+      <c r="A380" t="n">
         <v>378</v>
       </c>
       <c r="B380" t="n">
@@ -24985,7 +24990,7 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="1" t="n">
+      <c r="A381" t="n">
         <v>379</v>
       </c>
       <c r="B381" t="n">
@@ -25049,7 +25054,7 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="1" t="n">
+      <c r="A382" t="n">
         <v>380</v>
       </c>
       <c r="B382" t="n">
@@ -25113,7 +25118,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="1" t="n">
+      <c r="A383" t="n">
         <v>381</v>
       </c>
       <c r="B383" t="n">
@@ -25177,7 +25182,7 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="1" t="n">
+      <c r="A384" t="n">
         <v>382</v>
       </c>
       <c r="B384" t="n">
@@ -25241,7 +25246,7 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="1" t="n">
+      <c r="A385" t="n">
         <v>383</v>
       </c>
       <c r="B385" t="n">
@@ -25305,7 +25310,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="1" t="n">
+      <c r="A386" t="n">
         <v>384</v>
       </c>
       <c r="B386" t="n">
@@ -25369,7 +25374,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="1" t="n">
+      <c r="A387" t="n">
         <v>385</v>
       </c>
       <c r="B387" t="n">
@@ -25433,7 +25438,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="1" t="n">
+      <c r="A388" t="n">
         <v>386</v>
       </c>
       <c r="B388" t="n">
@@ -25497,7 +25502,7 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="1" t="n">
+      <c r="A389" t="n">
         <v>387</v>
       </c>
       <c r="B389" t="n">
@@ -25561,7 +25566,7 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="1" t="n">
+      <c r="A390" t="n">
         <v>388</v>
       </c>
       <c r="B390" t="n">
@@ -25625,7 +25630,7 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="1" t="n">
+      <c r="A391" t="n">
         <v>389</v>
       </c>
       <c r="B391" t="n">
@@ -25689,7 +25694,7 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="1" t="n">
+      <c r="A392" t="n">
         <v>390</v>
       </c>
       <c r="B392" t="n">
@@ -25753,7 +25758,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="1" t="n">
+      <c r="A393" t="n">
         <v>391</v>
       </c>
       <c r="B393" t="n">
@@ -25817,7 +25822,7 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="1" t="n">
+      <c r="A394" t="n">
         <v>392</v>
       </c>
       <c r="B394" t="n">
@@ -25881,7 +25886,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="1" t="n">
+      <c r="A395" t="n">
         <v>393</v>
       </c>
       <c r="B395" t="n">
@@ -25945,7 +25950,7 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="1" t="n">
+      <c r="A396" t="n">
         <v>394</v>
       </c>
       <c r="B396" t="n">
@@ -26009,7 +26014,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="1" t="n">
+      <c r="A397" t="n">
         <v>395</v>
       </c>
       <c r="B397" t="n">
@@ -26073,7 +26078,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="1" t="n">
+      <c r="A398" t="n">
         <v>396</v>
       </c>
       <c r="B398" t="n">
@@ -26137,7 +26142,7 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1" t="n">
+      <c r="A399" t="n">
         <v>397</v>
       </c>
       <c r="B399" t="n">
@@ -26201,7 +26206,7 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="1" t="n">
+      <c r="A400" t="n">
         <v>398</v>
       </c>
       <c r="B400" t="n">
@@ -26265,7 +26270,7 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="1" t="n">
+      <c r="A401" t="n">
         <v>399</v>
       </c>
       <c r="B401" t="n">
@@ -26329,7 +26334,7 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="1" t="n">
+      <c r="A402" t="n">
         <v>400</v>
       </c>
       <c r="B402" t="n">
@@ -26393,7 +26398,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="1" t="n">
+      <c r="A403" t="n">
         <v>401</v>
       </c>
       <c r="B403" t="n">
@@ -26457,7 +26462,7 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="1" t="n">
+      <c r="A404" t="n">
         <v>402</v>
       </c>
       <c r="B404" t="n">
@@ -26521,7 +26526,7 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="1" t="n">
+      <c r="A405" t="n">
         <v>403</v>
       </c>
       <c r="B405" t="n">
@@ -26585,7 +26590,7 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="1" t="n">
+      <c r="A406" t="n">
         <v>404</v>
       </c>
       <c r="B406" t="n">
@@ -26649,7 +26654,7 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="1" t="n">
+      <c r="A407" t="n">
         <v>405</v>
       </c>
       <c r="B407" t="n">
@@ -26713,7 +26718,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="1" t="n">
+      <c r="A408" t="n">
         <v>406</v>
       </c>
       <c r="B408" t="n">
@@ -26777,7 +26782,7 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="1" t="n">
+      <c r="A409" t="n">
         <v>407</v>
       </c>
       <c r="B409" t="n">
@@ -26841,7 +26846,7 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="1" t="n">
+      <c r="A410" t="n">
         <v>408</v>
       </c>
       <c r="B410" t="n">
@@ -26905,7 +26910,7 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="1" t="n">
+      <c r="A411" t="n">
         <v>409</v>
       </c>
       <c r="B411" t="n">
@@ -26969,7 +26974,7 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="1" t="n">
+      <c r="A412" t="n">
         <v>410</v>
       </c>
       <c r="B412" t="n">
@@ -27033,7 +27038,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="1" t="n">
+      <c r="A413" t="n">
         <v>411</v>
       </c>
       <c r="B413" t="n">
@@ -27097,7 +27102,7 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="1" t="n">
+      <c r="A414" t="n">
         <v>412</v>
       </c>
       <c r="B414" t="n">
@@ -27161,7 +27166,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="1" t="n">
+      <c r="A415" t="n">
         <v>413</v>
       </c>
       <c r="B415" t="n">
@@ -27225,7 +27230,7 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="1" t="n">
+      <c r="A416" t="n">
         <v>414</v>
       </c>
       <c r="B416" t="n">
@@ -27289,7 +27294,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="1" t="n">
+      <c r="A417" t="n">
         <v>415</v>
       </c>
       <c r="B417" t="n">
@@ -27353,7 +27358,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="1" t="n">
+      <c r="A418" t="n">
         <v>416</v>
       </c>
       <c r="B418" t="n">
@@ -27417,7 +27422,7 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="1" t="n">
+      <c r="A419" t="n">
         <v>417</v>
       </c>
       <c r="B419" t="n">
@@ -27481,7 +27486,7 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="1" t="n">
+      <c r="A420" t="n">
         <v>418</v>
       </c>
       <c r="B420" t="n">
@@ -27545,7 +27550,7 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="1" t="n">
+      <c r="A421" t="n">
         <v>419</v>
       </c>
       <c r="B421" t="n">
@@ -27609,7 +27614,7 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="1" t="n">
+      <c r="A422" t="n">
         <v>420</v>
       </c>
       <c r="B422" t="n">
@@ -27673,7 +27678,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="1" t="n">
+      <c r="A423" t="n">
         <v>421</v>
       </c>
       <c r="B423" t="n">
@@ -27737,7 +27742,7 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="1" t="n">
+      <c r="A424" t="n">
         <v>422</v>
       </c>
       <c r="B424" t="n">
@@ -27801,7 +27806,7 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="1" t="n">
+      <c r="A425" t="n">
         <v>423</v>
       </c>
       <c r="B425" t="n">
@@ -27865,7 +27870,7 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="1" t="n">
+      <c r="A426" t="n">
         <v>424</v>
       </c>
       <c r="B426" t="n">
@@ -27929,7 +27934,7 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="1" t="n">
+      <c r="A427" t="n">
         <v>425</v>
       </c>
       <c r="B427" t="n">
@@ -27993,7 +27998,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="1" t="n">
+      <c r="A428" t="n">
         <v>426</v>
       </c>
       <c r="B428" t="n">
@@ -28057,7 +28062,7 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="1" t="n">
+      <c r="A429" t="n">
         <v>427</v>
       </c>
       <c r="B429" t="n">
@@ -28121,7 +28126,7 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="1" t="n">
+      <c r="A430" t="n">
         <v>428</v>
       </c>
       <c r="B430" t="n">
@@ -28185,7 +28190,7 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="1" t="n">
+      <c r="A431" t="n">
         <v>429</v>
       </c>
       <c r="B431" t="n">
@@ -28249,7 +28254,7 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="1" t="n">
+      <c r="A432" t="n">
         <v>430</v>
       </c>
       <c r="B432" t="n">
@@ -28313,7 +28318,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="1" t="n">
+      <c r="A433" t="n">
         <v>431</v>
       </c>
       <c r="B433" t="n">
@@ -28377,7 +28382,7 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="1" t="n">
+      <c r="A434" t="n">
         <v>432</v>
       </c>
       <c r="B434" t="n">
@@ -28441,7 +28446,7 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="1" t="n">
+      <c r="A435" t="n">
         <v>433</v>
       </c>
       <c r="B435" t="inlineStr"/>
@@ -28475,7 +28480,7 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="1" t="n">
+      <c r="A436" t="n">
         <v>434</v>
       </c>
       <c r="B436" t="n">
@@ -28531,7 +28536,7 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="1" t="n">
+      <c r="A437" t="n">
         <v>435</v>
       </c>
       <c r="B437" t="n">
@@ -28587,7 +28592,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="1" t="n">
+      <c r="A438" t="n">
         <v>436</v>
       </c>
       <c r="B438" t="n">
@@ -28643,7 +28648,7 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="1" t="n">
+      <c r="A439" t="n">
         <v>437</v>
       </c>
       <c r="B439" t="n">
@@ -28699,7 +28704,7 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="1" t="n">
+      <c r="A440" t="n">
         <v>438</v>
       </c>
       <c r="B440" t="n">
@@ -28755,7 +28760,7 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="1" t="n">
+      <c r="A441" t="n">
         <v>439</v>
       </c>
       <c r="B441" t="n">
@@ -28811,7 +28816,7 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="1" t="n">
+      <c r="A442" t="n">
         <v>440</v>
       </c>
       <c r="B442" t="n">
@@ -28867,7 +28872,7 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="1" t="n">
+      <c r="A443" t="n">
         <v>441</v>
       </c>
       <c r="B443" t="n">
@@ -28910,7 +28915,7 @@
       <c r="Q443" t="inlineStr"/>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T443" t="b">
         <v>0</v>
@@ -28923,7 +28928,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="1" t="n">
+      <c r="A444" t="n">
         <v>442</v>
       </c>
       <c r="B444" t="n">
@@ -28979,7 +28984,7 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="1" t="n">
+      <c r="A445" t="n">
         <v>443</v>
       </c>
       <c r="B445" t="n">
@@ -29035,7 +29040,7 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="1" t="n">
+      <c r="A446" t="n">
         <v>444</v>
       </c>
       <c r="B446" t="n">
@@ -29091,7 +29096,7 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="1" t="n">
+      <c r="A447" t="n">
         <v>445</v>
       </c>
       <c r="B447" t="n">
@@ -29147,7 +29152,7 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="1" t="n">
+      <c r="A448" t="n">
         <v>446</v>
       </c>
       <c r="B448" t="n">
@@ -29203,7 +29208,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="1" t="n">
+      <c r="A449" t="n">
         <v>447</v>
       </c>
       <c r="B449" t="n">
@@ -29259,7 +29264,7 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="1" t="n">
+      <c r="A450" t="n">
         <v>448</v>
       </c>
       <c r="B450" t="n">
@@ -29315,7 +29320,7 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="1" t="n">
+      <c r="A451" t="n">
         <v>449</v>
       </c>
       <c r="B451" t="n">
@@ -29371,7 +29376,7 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="1" t="n">
+      <c r="A452" t="n">
         <v>450</v>
       </c>
       <c r="B452" t="n">
@@ -29427,7 +29432,7 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="1" t="n">
+      <c r="A453" t="n">
         <v>451</v>
       </c>
       <c r="B453" t="n">
@@ -29483,7 +29488,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="1" t="n">
+      <c r="A454" t="n">
         <v>452</v>
       </c>
       <c r="B454" t="n">
@@ -29539,7 +29544,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="1" t="n">
+      <c r="A455" t="n">
         <v>453</v>
       </c>
       <c r="B455" t="n">
@@ -29595,7 +29600,7 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="1" t="n">
+      <c r="A456" t="n">
         <v>454</v>
       </c>
       <c r="B456" t="n">
@@ -29651,7 +29656,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="1" t="n">
+      <c r="A457" t="n">
         <v>455</v>
       </c>
       <c r="B457" t="n">
@@ -29707,7 +29712,7 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="1" t="n">
+      <c r="A458" t="n">
         <v>456</v>
       </c>
       <c r="B458" t="n">
@@ -29763,7 +29768,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="1" t="n">
+      <c r="A459" t="n">
         <v>457</v>
       </c>
       <c r="B459" t="n">
@@ -29819,7 +29824,7 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="1" t="n">
+      <c r="A460" t="n">
         <v>458</v>
       </c>
       <c r="B460" t="n">
@@ -29875,7 +29880,7 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="1" t="n">
+      <c r="A461" t="n">
         <v>459</v>
       </c>
       <c r="B461" t="n">
@@ -29931,7 +29936,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="1" t="n">
+      <c r="A462" t="n">
         <v>460</v>
       </c>
       <c r="B462" t="n">
@@ -29987,7 +29992,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="1" t="n">
+      <c r="A463" t="n">
         <v>461</v>
       </c>
       <c r="B463" t="n">
@@ -30043,7 +30048,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="1" t="n">
+      <c r="A464" t="n">
         <v>462</v>
       </c>
       <c r="B464" t="n">
@@ -30099,7 +30104,7 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="1" t="n">
+      <c r="A465" t="n">
         <v>463</v>
       </c>
       <c r="B465" t="n">
@@ -30142,7 +30147,7 @@
       <c r="Q465" t="inlineStr"/>
       <c r="R465" t="inlineStr"/>
       <c r="S465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T465" t="b">
         <v>0</v>
@@ -30155,7 +30160,7 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="1" t="n">
+      <c r="A466" t="n">
         <v>464</v>
       </c>
       <c r="B466" t="n">
@@ -30211,7 +30216,7 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="1" t="n">
+      <c r="A467" t="n">
         <v>465</v>
       </c>
       <c r="B467" t="n">
@@ -30267,7 +30272,7 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="1" t="n">
+      <c r="A468" t="n">
         <v>466</v>
       </c>
       <c r="B468" t="n">
@@ -30323,7 +30328,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="1" t="n">
+      <c r="A469" t="n">
         <v>467</v>
       </c>
       <c r="B469" t="n">
@@ -30379,7 +30384,7 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="1" t="n">
+      <c r="A470" t="n">
         <v>468</v>
       </c>
       <c r="B470" t="n">
@@ -30435,7 +30440,7 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="1" t="n">
+      <c r="A471" t="n">
         <v>469</v>
       </c>
       <c r="B471" t="n">
@@ -30491,7 +30496,7 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="1" t="n">
+      <c r="A472" t="n">
         <v>470</v>
       </c>
       <c r="B472" t="n">
@@ -30547,7 +30552,7 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="1" t="n">
+      <c r="A473" t="n">
         <v>471</v>
       </c>
       <c r="B473" t="n">
@@ -30603,7 +30608,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="1" t="n">
+      <c r="A474" t="n">
         <v>472</v>
       </c>
       <c r="B474" t="n">
@@ -30659,7 +30664,7 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="1" t="n">
+      <c r="A475" t="n">
         <v>473</v>
       </c>
       <c r="B475" t="n">
@@ -30715,7 +30720,7 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="1" t="n">
+      <c r="A476" t="n">
         <v>474</v>
       </c>
       <c r="B476" t="n">
@@ -30771,7 +30776,7 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="1" t="n">
+      <c r="A477" t="n">
         <v>475</v>
       </c>
       <c r="B477" t="n">
@@ -30827,7 +30832,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="1" t="n">
+      <c r="A478" t="n">
         <v>476</v>
       </c>
       <c r="B478" t="n">
@@ -30883,7 +30888,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="1" t="n">
+      <c r="A479" t="n">
         <v>477</v>
       </c>
       <c r="B479" t="n">
@@ -30939,7 +30944,7 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="1" t="n">
+      <c r="A480" t="n">
         <v>478</v>
       </c>
       <c r="B480" t="n">
@@ -30995,7 +31000,7 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="1" t="n">
+      <c r="A481" t="n">
         <v>479</v>
       </c>
       <c r="B481" t="n">
@@ -31051,7 +31056,7 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="1" t="n">
+      <c r="A482" t="n">
         <v>480</v>
       </c>
       <c r="B482" t="n">
@@ -31107,7 +31112,7 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="1" t="n">
+      <c r="A483" t="n">
         <v>481</v>
       </c>
       <c r="B483" t="n">
@@ -31163,7 +31168,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="1" t="n">
+      <c r="A484" t="n">
         <v>482</v>
       </c>
       <c r="B484" t="n">
@@ -31219,7 +31224,7 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="1" t="n">
+      <c r="A485" t="n">
         <v>483</v>
       </c>
       <c r="B485" t="n">
@@ -31275,7 +31280,7 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="1" t="n">
+      <c r="A486" t="n">
         <v>484</v>
       </c>
       <c r="B486" t="n">
@@ -31331,7 +31336,7 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="1" t="n">
+      <c r="A487" t="n">
         <v>485</v>
       </c>
       <c r="B487" t="n">
@@ -31387,7 +31392,7 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="1" t="n">
+      <c r="A488" t="n">
         <v>486</v>
       </c>
       <c r="B488" t="n">
@@ -31443,7 +31448,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="1" t="n">
+      <c r="A489" t="n">
         <v>487</v>
       </c>
       <c r="B489" t="n">
@@ -31499,7 +31504,7 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="1" t="n">
+      <c r="A490" t="n">
         <v>488</v>
       </c>
       <c r="B490" t="n">
@@ -31555,7 +31560,7 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="1" t="n">
+      <c r="A491" t="n">
         <v>489</v>
       </c>
       <c r="B491" t="n">
@@ -31611,7 +31616,7 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="1" t="n">
+      <c r="A492" t="n">
         <v>490</v>
       </c>
       <c r="B492" t="n">
@@ -31660,14 +31665,14 @@
         <v>0</v>
       </c>
       <c r="U492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V492" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="1" t="n">
+      <c r="A493" t="n">
         <v>491</v>
       </c>
       <c r="B493" t="n">
@@ -31723,7 +31728,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="1" t="n">
+      <c r="A494" t="n">
         <v>492</v>
       </c>
       <c r="B494" t="n">
@@ -31779,7 +31784,7 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="1" t="n">
+      <c r="A495" t="n">
         <v>493</v>
       </c>
       <c r="B495" t="n">
@@ -31835,7 +31840,7 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="1" t="n">
+      <c r="A496" t="n">
         <v>494</v>
       </c>
       <c r="B496" t="n">
@@ -31891,7 +31896,7 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="1" t="n">
+      <c r="A497" t="n">
         <v>495</v>
       </c>
       <c r="B497" t="n">
@@ -31947,7 +31952,7 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="1" t="n">
+      <c r="A498" t="n">
         <v>496</v>
       </c>
       <c r="B498" t="n">
@@ -32003,7 +32008,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="1" t="n">
+      <c r="A499" t="n">
         <v>497</v>
       </c>
       <c r="B499" t="n">
@@ -32059,7 +32064,7 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="1" t="n">
+      <c r="A500" t="n">
         <v>498</v>
       </c>
       <c r="B500" t="n">
@@ -32115,7 +32120,7 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="1" t="n">
+      <c r="A501" t="n">
         <v>499</v>
       </c>
       <c r="B501" t="n">
@@ -32171,7 +32176,7 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="1" t="n">
+      <c r="A502" t="n">
         <v>500</v>
       </c>
       <c r="B502" t="n">
@@ -32227,7 +32232,7 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="1" t="n">
+      <c r="A503" t="n">
         <v>501</v>
       </c>
       <c r="B503" t="n">
@@ -32283,7 +32288,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="1" t="n">
+      <c r="A504" t="n">
         <v>502</v>
       </c>
       <c r="B504" t="n">
@@ -32339,7 +32344,7 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="1" t="n">
+      <c r="A505" t="n">
         <v>503</v>
       </c>
       <c r="B505" t="n">
@@ -32395,7 +32400,7 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="1" t="n">
+      <c r="A506" t="n">
         <v>504</v>
       </c>
       <c r="B506" t="n">
@@ -32451,7 +32456,7 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="1" t="n">
+      <c r="A507" t="n">
         <v>505</v>
       </c>
       <c r="B507" t="n">
@@ -32507,7 +32512,7 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="1" t="n">
+      <c r="A508" t="n">
         <v>506</v>
       </c>
       <c r="B508" t="n">
@@ -32563,7 +32568,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="1" t="n">
+      <c r="A509" t="n">
         <v>507</v>
       </c>
       <c r="B509" t="n">
@@ -32619,7 +32624,7 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="1" t="n">
+      <c r="A510" t="n">
         <v>508</v>
       </c>
       <c r="B510" t="n">
@@ -32675,7 +32680,7 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="1" t="n">
+      <c r="A511" t="n">
         <v>509</v>
       </c>
       <c r="B511" t="n">
@@ -32731,7 +32736,7 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="1" t="n">
+      <c r="A512" t="n">
         <v>510</v>
       </c>
       <c r="B512" t="n">
@@ -32787,7 +32792,7 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="1" t="n">
+      <c r="A513" t="n">
         <v>511</v>
       </c>
       <c r="B513" t="n">
@@ -32843,7 +32848,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="1" t="n">
+      <c r="A514" t="n">
         <v>512</v>
       </c>
       <c r="B514" t="n">
@@ -32899,7 +32904,7 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="1" t="n">
+      <c r="A515" t="n">
         <v>513</v>
       </c>
       <c r="B515" t="n">
@@ -32955,7 +32960,7 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="1" t="n">
+      <c r="A516" t="n">
         <v>514</v>
       </c>
       <c r="B516" t="n">
@@ -33011,7 +33016,7 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="1" t="n">
+      <c r="A517" t="n">
         <v>515</v>
       </c>
       <c r="B517" t="n">
@@ -33067,7 +33072,7 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="1" t="n">
+      <c r="A518" t="n">
         <v>516</v>
       </c>
       <c r="B518" t="n">
@@ -33123,7 +33128,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="1" t="n">
+      <c r="A519" t="n">
         <v>517</v>
       </c>
       <c r="B519" t="n">
@@ -33179,7 +33184,7 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="1" t="n">
+      <c r="A520" t="n">
         <v>518</v>
       </c>
       <c r="B520" t="n">
@@ -33235,7 +33240,7 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="1" t="n">
+      <c r="A521" t="n">
         <v>519</v>
       </c>
       <c r="B521" t="n">
@@ -33291,7 +33296,7 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="1" t="n">
+      <c r="A522" t="n">
         <v>520</v>
       </c>
       <c r="B522" t="n">
@@ -33347,7 +33352,7 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="1" t="n">
+      <c r="A523" t="n">
         <v>521</v>
       </c>
       <c r="B523" t="n">
@@ -33403,7 +33408,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="1" t="n">
+      <c r="A524" t="n">
         <v>522</v>
       </c>
       <c r="B524" t="n">
@@ -33459,7 +33464,7 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="1" t="n">
+      <c r="A525" t="n">
         <v>523</v>
       </c>
       <c r="B525" t="n">
@@ -33515,7 +33520,7 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="1" t="n">
+      <c r="A526" t="n">
         <v>524</v>
       </c>
       <c r="B526" t="n">
@@ -33571,7 +33576,7 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="1" t="n">
+      <c r="A527" t="n">
         <v>525</v>
       </c>
       <c r="B527" t="n">
@@ -33627,7 +33632,7 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="1" t="n">
+      <c r="A528" t="n">
         <v>526</v>
       </c>
       <c r="B528" t="n">
@@ -33683,7 +33688,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="1" t="n">
+      <c r="A529" t="n">
         <v>527</v>
       </c>
       <c r="B529" t="n">
@@ -33739,7 +33744,7 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="1" t="n">
+      <c r="A530" t="n">
         <v>528</v>
       </c>
       <c r="B530" t="n">
@@ -33795,7 +33800,7 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="1" t="n">
+      <c r="A531" t="n">
         <v>529</v>
       </c>
       <c r="B531" t="n">
@@ -33851,7 +33856,7 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="1" t="n">
+      <c r="A532" t="n">
         <v>530</v>
       </c>
       <c r="B532" t="n">
@@ -33907,7 +33912,7 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="1" t="n">
+      <c r="A533" t="n">
         <v>531</v>
       </c>
       <c r="B533" t="n">
@@ -33963,7 +33968,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="1" t="n">
+      <c r="A534" t="n">
         <v>532</v>
       </c>
       <c r="B534" t="inlineStr"/>
@@ -33997,7 +34002,7 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="1" t="n">
+      <c r="A535" t="n">
         <v>533</v>
       </c>
       <c r="B535" t="n">
@@ -34053,7 +34058,7 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="1" t="n">
+      <c r="A536" t="n">
         <v>534</v>
       </c>
       <c r="B536" t="n">
@@ -34109,7 +34114,7 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="1" t="n">
+      <c r="A537" t="n">
         <v>535</v>
       </c>
       <c r="B537" t="n">
@@ -34165,7 +34170,7 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="1" t="n">
+      <c r="A538" t="n">
         <v>536</v>
       </c>
       <c r="B538" t="n">
@@ -34221,7 +34226,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="1" t="n">
+      <c r="A539" t="n">
         <v>537</v>
       </c>
       <c r="B539" t="n">
@@ -34277,7 +34282,7 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="1" t="n">
+      <c r="A540" t="n">
         <v>538</v>
       </c>
       <c r="B540" t="n">
@@ -34333,7 +34338,7 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="1" t="n">
+      <c r="A541" t="n">
         <v>539</v>
       </c>
       <c r="B541" t="n">
@@ -34389,7 +34394,7 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="1" t="n">
+      <c r="A542" t="n">
         <v>540</v>
       </c>
       <c r="B542" t="n">
@@ -34445,7 +34450,7 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" s="1" t="n">
+      <c r="A543" t="n">
         <v>541</v>
       </c>
       <c r="B543" t="n">
@@ -34501,7 +34506,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="1" t="n">
+      <c r="A544" t="n">
         <v>542</v>
       </c>
       <c r="B544" t="n">
@@ -34557,7 +34562,7 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" s="1" t="n">
+      <c r="A545" t="n">
         <v>543</v>
       </c>
       <c r="B545" t="n">
@@ -34613,7 +34618,7 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="1" t="n">
+      <c r="A546" t="n">
         <v>544</v>
       </c>
       <c r="B546" t="n">
@@ -34669,7 +34674,7 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="1" t="n">
+      <c r="A547" t="n">
         <v>545</v>
       </c>
       <c r="B547" t="n">
@@ -34725,7 +34730,7 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" s="1" t="n">
+      <c r="A548" t="n">
         <v>546</v>
       </c>
       <c r="B548" t="n">
@@ -34781,7 +34786,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="1" t="n">
+      <c r="A549" t="n">
         <v>547</v>
       </c>
       <c r="B549" t="n">
@@ -34837,7 +34842,7 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="1" t="n">
+      <c r="A550" t="n">
         <v>548</v>
       </c>
       <c r="B550" t="n">
@@ -34893,7 +34898,7 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="1" t="n">
+      <c r="A551" t="n">
         <v>549</v>
       </c>
       <c r="B551" t="n">
@@ -34949,7 +34954,7 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="1" t="n">
+      <c r="A552" t="n">
         <v>550</v>
       </c>
       <c r="B552" t="n">
@@ -35005,7 +35010,7 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="1" t="n">
+      <c r="A553" t="n">
         <v>551</v>
       </c>
       <c r="B553" t="n">
@@ -35061,7 +35066,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="1" t="n">
+      <c r="A554" t="n">
         <v>552</v>
       </c>
       <c r="B554" t="n">
@@ -35117,7 +35122,7 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" s="1" t="n">
+      <c r="A555" t="n">
         <v>553</v>
       </c>
       <c r="B555" t="n">
@@ -35173,7 +35178,7 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" s="1" t="n">
+      <c r="A556" t="n">
         <v>554</v>
       </c>
       <c r="B556" t="n">
@@ -35229,7 +35234,7 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="1" t="n">
+      <c r="A557" t="n">
         <v>555</v>
       </c>
       <c r="B557" t="n">
@@ -35285,7 +35290,7 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" s="1" t="n">
+      <c r="A558" t="n">
         <v>556</v>
       </c>
       <c r="B558" t="n">
@@ -35341,7 +35346,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="1" t="n">
+      <c r="A559" t="n">
         <v>557</v>
       </c>
       <c r="B559" t="n">
@@ -35397,7 +35402,7 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" s="1" t="n">
+      <c r="A560" t="n">
         <v>558</v>
       </c>
       <c r="B560" t="n">
@@ -35453,7 +35458,7 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" s="1" t="n">
+      <c r="A561" t="n">
         <v>559</v>
       </c>
       <c r="B561" t="n">
@@ -35509,7 +35514,7 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="1" t="n">
+      <c r="A562" t="n">
         <v>560</v>
       </c>
       <c r="B562" t="n">
@@ -35565,7 +35570,7 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" s="1" t="n">
+      <c r="A563" t="n">
         <v>561</v>
       </c>
       <c r="B563" t="n">
@@ -35621,7 +35626,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="1" t="n">
+      <c r="A564" t="n">
         <v>562</v>
       </c>
       <c r="B564" t="n">
@@ -35677,7 +35682,7 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" s="1" t="n">
+      <c r="A565" t="n">
         <v>563</v>
       </c>
       <c r="B565" t="n">
@@ -35733,7 +35738,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" s="1" t="n">
+      <c r="A566" t="n">
         <v>564</v>
       </c>
       <c r="B566" t="n">
@@ -35789,7 +35794,7 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="1" t="n">
+      <c r="A567" t="n">
         <v>565</v>
       </c>
       <c r="B567" t="n">
@@ -35845,7 +35850,7 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" s="1" t="n">
+      <c r="A568" t="n">
         <v>566</v>
       </c>
       <c r="B568" t="n">
@@ -35901,7 +35906,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="1" t="n">
+      <c r="A569" t="n">
         <v>567</v>
       </c>
       <c r="B569" t="n">
@@ -35957,7 +35962,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" s="1" t="n">
+      <c r="A570" t="n">
         <v>568</v>
       </c>
       <c r="B570" t="n">
@@ -36013,7 +36018,7 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" s="1" t="n">
+      <c r="A571" t="n">
         <v>569</v>
       </c>
       <c r="B571" t="n">
@@ -36069,7 +36074,7 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="1" t="n">
+      <c r="A572" t="n">
         <v>570</v>
       </c>
       <c r="B572" t="n">
@@ -36125,7 +36130,7 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" s="1" t="n">
+      <c r="A573" t="n">
         <v>571</v>
       </c>
       <c r="B573" t="n">
@@ -36181,7 +36186,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="1" t="n">
+      <c r="A574" t="n">
         <v>572</v>
       </c>
       <c r="B574" t="n">
@@ -36237,7 +36242,7 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" s="1" t="n">
+      <c r="A575" t="n">
         <v>573</v>
       </c>
       <c r="B575" t="n">
@@ -36293,7 +36298,7 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" s="1" t="n">
+      <c r="A576" t="n">
         <v>574</v>
       </c>
       <c r="B576" t="n">
@@ -36349,7 +36354,7 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="1" t="n">
+      <c r="A577" t="n">
         <v>575</v>
       </c>
       <c r="B577" t="n">
@@ -36405,7 +36410,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" s="1" t="n">
+      <c r="A578" t="n">
         <v>576</v>
       </c>
       <c r="B578" t="n">
@@ -36461,7 +36466,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="1" t="n">
+      <c r="A579" t="n">
         <v>577</v>
       </c>
       <c r="B579" t="n">
@@ -36517,7 +36522,7 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" s="1" t="n">
+      <c r="A580" t="n">
         <v>578</v>
       </c>
       <c r="B580" t="n">
@@ -36573,7 +36578,7 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" s="1" t="n">
+      <c r="A581" t="n">
         <v>579</v>
       </c>
       <c r="B581" t="n">
@@ -36629,7 +36634,7 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="1" t="n">
+      <c r="A582" t="n">
         <v>580</v>
       </c>
       <c r="B582" t="n">
@@ -36685,7 +36690,7 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" s="1" t="n">
+      <c r="A583" t="n">
         <v>581</v>
       </c>
       <c r="B583" t="n">
@@ -36741,7 +36746,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="1" t="n">
+      <c r="A584" t="n">
         <v>582</v>
       </c>
       <c r="B584" t="n">
